--- a/v300Dialer_template.xlsx
+++ b/v300Dialer_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettsullivan/Desktop/BHRF/Data_Recourses/LANDSCRAPE/adhs-restore-28-Jul-2025 copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BDABEB-4859-9540-9BCE-C9F2973F46E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85A2235-D17A-144B-AEEB-09981C13199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="0" windowWidth="18200" windowHeight="22400" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="34800" windowHeight="21900" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="409">
   <si>
     <t>ADDRESS</t>
   </si>
@@ -1266,6 +1266,16 @@
   </si>
   <si>
     <t>HOA cost monthly basis</t>
+  </si>
+  <si>
+    <t>MULTI_NAME_(Y/N)</t>
+  </si>
+  <si>
+    <t>And new ‘INDIV_INDEX_#’, this is the equivalent of a multiple Person indexed sequential # assignment. Where in the case below both records ‘Richard S Driml’ &amp; ‘Sandra M Driml’ would share a INDIV_INDEX_# “Individual” logic where IF ‘OWNER_OWNERSHIP’ is multi-name i.e. “DRIMI RICHARD S/SANDRA M” get broken up to “Richard S Drimi” &amp; “Sandra M Drimi”, but remian related… Where it will show but still seperate records……….. MIGHT BE GOOD to include a checkbox where if it is a ‘multi-name’</t>
+  </si>
+  <si>
+    <t>can display wether or not that the INDIVIDUAL records get in the case that they are a ‘MULTI_NAME_(Y/N)’ into multiple records i.e. multiple name lookups for Contact info.  Value of ‘Y’ if INDIVIDUAL name identified &amp; contact split.
+n/a should be the value for those INDIVIDUALvsENTITY of ENTITY.</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1513,6 +1523,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1542,8 +1553,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>293688</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>43051</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>32288</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1559,7 +1570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9740254" y="2087966"/>
-          <a:ext cx="6471485" cy="7243305"/>
+          <a:ext cx="6471485" cy="9277458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2492,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA547D1D-55E4-9142-B57A-C035D375D836}">
   <dimension ref="A1:IL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4070,13 +4081,23 @@
       </c>
     </row>
     <row r="14" spans="1:246" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:246" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>407</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>372</v>
       </c>

--- a/v300Dialer_template.xlsx
+++ b/v300Dialer_template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettsullivan/Desktop/BHRF/Data_Recourses/LANDSCRAPE/adhs-restore-28-Jul-2025 copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85A2235-D17A-144B-AEEB-09981C13199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2FEA9D-CCB9-594C-8D5B-B03DD8443CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="34800" windowHeight="21900" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="546">
   <si>
     <t>ADDRESS</t>
   </si>
@@ -1276,6 +1277,417 @@
   <si>
     <t>can display wether or not that the INDIVIDUAL records get in the case that they are a ‘MULTI_NAME_(Y/N)’ into multiple records i.e. multiple name lookups for Contact info.  Value of ‘Y’ if INDIVIDUAL name identified &amp; contact split.
 n/a should be the value for those INDIVIDUALvsENTITY of ENTITY.</t>
+  </si>
+  <si>
+    <t>BatchData_Complete</t>
+  </si>
+  <si>
+    <t>phone_1</t>
+  </si>
+  <si>
+    <t>phone_1_type</t>
+  </si>
+  <si>
+    <t>phone_1_carrier</t>
+  </si>
+  <si>
+    <t>phone_1_dnc</t>
+  </si>
+  <si>
+    <t>phone_1_tcpa</t>
+  </si>
+  <si>
+    <t>phone_1_confidence</t>
+  </si>
+  <si>
+    <t>phone_2</t>
+  </si>
+  <si>
+    <t>phone_2_type</t>
+  </si>
+  <si>
+    <t>phone_2_carrier</t>
+  </si>
+  <si>
+    <t>phone_2_dnc</t>
+  </si>
+  <si>
+    <t>phone_2_tcpa</t>
+  </si>
+  <si>
+    <t>phone_2_confidence</t>
+  </si>
+  <si>
+    <t>phone_3</t>
+  </si>
+  <si>
+    <t>phone_3_type</t>
+  </si>
+  <si>
+    <t>phone_3_carrier</t>
+  </si>
+  <si>
+    <t>phone_3_dnc</t>
+  </si>
+  <si>
+    <t>phone_3_tcpa</t>
+  </si>
+  <si>
+    <t>phone_3_confidence</t>
+  </si>
+  <si>
+    <t>phone_4</t>
+  </si>
+  <si>
+    <t>phone_4_type</t>
+  </si>
+  <si>
+    <t>phone_4_carrier</t>
+  </si>
+  <si>
+    <t>phone_4_dnc</t>
+  </si>
+  <si>
+    <t>phone_4_tcpa</t>
+  </si>
+  <si>
+    <t>phone_4_confidence</t>
+  </si>
+  <si>
+    <t>phone_5</t>
+  </si>
+  <si>
+    <t>phone_5_type</t>
+  </si>
+  <si>
+    <t>phone_5_carrier</t>
+  </si>
+  <si>
+    <t>phone_5_dnc</t>
+  </si>
+  <si>
+    <t>phone_5_tcpa</t>
+  </si>
+  <si>
+    <t>phone_5_confidence</t>
+  </si>
+  <si>
+    <t>phone_6</t>
+  </si>
+  <si>
+    <t>phone_6_type</t>
+  </si>
+  <si>
+    <t>phone_6_carrier</t>
+  </si>
+  <si>
+    <t>phone_6_dnc</t>
+  </si>
+  <si>
+    <t>phone_6_tcpa</t>
+  </si>
+  <si>
+    <t>phone_6_confidence</t>
+  </si>
+  <si>
+    <t>phone_7</t>
+  </si>
+  <si>
+    <t>phone_7_type</t>
+  </si>
+  <si>
+    <t>phone_7_carrier</t>
+  </si>
+  <si>
+    <t>phone_7_dnc</t>
+  </si>
+  <si>
+    <t>phone_7_tcpa</t>
+  </si>
+  <si>
+    <t>phone_7_confidence</t>
+  </si>
+  <si>
+    <t>phone_8</t>
+  </si>
+  <si>
+    <t>phone_8_type</t>
+  </si>
+  <si>
+    <t>phone_8_carrier</t>
+  </si>
+  <si>
+    <t>phone_8_dnc</t>
+  </si>
+  <si>
+    <t>phone_8_tcpa</t>
+  </si>
+  <si>
+    <t>phone_8_confidence</t>
+  </si>
+  <si>
+    <t>phone_9</t>
+  </si>
+  <si>
+    <t>phone_9_type</t>
+  </si>
+  <si>
+    <t>phone_9_carrier</t>
+  </si>
+  <si>
+    <t>phone_9_dnc</t>
+  </si>
+  <si>
+    <t>phone_9_tcpa</t>
+  </si>
+  <si>
+    <t>phone_9_confidence</t>
+  </si>
+  <si>
+    <t>phone_10</t>
+  </si>
+  <si>
+    <t>phone_10_type</t>
+  </si>
+  <si>
+    <t>phone_10_carrier</t>
+  </si>
+  <si>
+    <t>phone_10_dnc</t>
+  </si>
+  <si>
+    <t>phone_10_tcpa</t>
+  </si>
+  <si>
+    <t>phone_10_confidence</t>
+  </si>
+  <si>
+    <t>email_1</t>
+  </si>
+  <si>
+    <t>email_1_tested</t>
+  </si>
+  <si>
+    <t>email_2</t>
+  </si>
+  <si>
+    <t>email_2_tested</t>
+  </si>
+  <si>
+    <t>email_3</t>
+  </si>
+  <si>
+    <t>email_3_tested</t>
+  </si>
+  <si>
+    <t>email_4</t>
+  </si>
+  <si>
+    <t>email_4_tested</t>
+  </si>
+  <si>
+    <t>email_5</t>
+  </si>
+  <si>
+    <t>email_5_tested</t>
+  </si>
+  <si>
+    <t>email_6</t>
+  </si>
+  <si>
+    <t>email_6_tested</t>
+  </si>
+  <si>
+    <t>email_7</t>
+  </si>
+  <si>
+    <t>email_7_tested</t>
+  </si>
+  <si>
+    <t>email_8</t>
+  </si>
+  <si>
+    <t>email_8_tested</t>
+  </si>
+  <si>
+    <t>email_9</t>
+  </si>
+  <si>
+    <t>email_9_tested</t>
+  </si>
+  <si>
+    <t>email_10</t>
+  </si>
+  <si>
+    <t>email_10_tested</t>
+  </si>
+  <si>
+    <t>api_status</t>
+  </si>
+  <si>
+    <t>api_response_time</t>
+  </si>
+  <si>
+    <t>persons_found</t>
+  </si>
+  <si>
+    <t>phones_found</t>
+  </si>
+  <si>
+    <t>emails_found</t>
+  </si>
+  <si>
+    <t>pipeline_version</t>
+  </si>
+  <si>
+    <t>pipeline_timestamp</t>
+  </si>
+  <si>
+    <t>stages_applied</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>source_type</t>
+  </si>
+  <si>
+    <t>source_entity_name</t>
+  </si>
+  <si>
+    <t>source_entity_id</t>
+  </si>
+  <si>
+    <t>title_role</t>
+  </si>
+  <si>
+    <t>target_first_name</t>
+  </si>
+  <si>
+    <t>target_last_name</t>
+  </si>
+  <si>
+    <t>owner_name_full</t>
+  </si>
+  <si>
+    <t>address_line1</t>
+  </si>
+  <si>
+    <t>address_line2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>apn</t>
+  </si>
+  <si>
+    <t>mailing_line1</t>
+  </si>
+  <si>
+    <t>mailing_city</t>
+  </si>
+  <si>
+    <t>mailing_state</t>
+  </si>
+  <si>
+    <t>mailing_zip</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>ecorp_23654590_entity_49131aec</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Four Angels Investments 12 LLC</t>
+  </si>
+  <si>
+    <t>23654590</t>
+  </si>
+  <si>
+    <t>Statutory Agent (Entity)</t>
+  </si>
+  <si>
+    <t>ALI LEGAL, PLLC</t>
+  </si>
+  <si>
+    <t>4500 S Lakeshore Dr</t>
+  </si>
+  <si>
+    <t>Ste 510</t>
+  </si>
+  <si>
+    <t>TEMPE</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Maricopa</t>
+  </si>
+  <si>
+    <t>Derived from eCorp search: FOUR ANGELS INVESTMENTS 12 LLC</t>
+  </si>
+  <si>
+    <t>7088901868</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>T-MOBILE USA- INC.</t>
+  </si>
+  <si>
+    <t>5208872671</t>
+  </si>
+  <si>
+    <t>Land Line</t>
+  </si>
+  <si>
+    <t>COMCAST IP PHONE- LLC</t>
+  </si>
+  <si>
+    <t>2104941832</t>
+  </si>
+  <si>
+    <t>SOUTHWESTERN BELL</t>
+  </si>
+  <si>
+    <t>7855379510</t>
+  </si>
+  <si>
+    <t>9287040542</t>
+  </si>
+  <si>
+    <t>CITIZENS UTILITIES RURAL DBA FRONTIER UT RURAL</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>2025-11-18 13:59:24</t>
+  </si>
+  <si>
+    <t>sync_v1</t>
+  </si>
+  <si>
+    <t>2025-11-18 13:59:25</t>
+  </si>
+  <si>
+    <t>{"skip_trace": true, "phone_verify": true, "dnc": true, "tcpa": true}</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1935,9 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1553,8 +1967,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>293688</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>32288</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>430508</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1570,7 +1984,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9740254" y="2087966"/>
-          <a:ext cx="6471485" cy="9277458"/>
+          <a:ext cx="6471485" cy="5381356"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2501,10 +2915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA547D1D-55E4-9142-B57A-C035D375D836}">
-  <dimension ref="A1:IL35"/>
+  <dimension ref="A1:IL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A14" zoomScale="118" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4081,7 +4495,7 @@
       </c>
     </row>
     <row r="14" spans="1:246" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" t="s">
         <v>406</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5610,7 +6024,604 @@
     </row>
     <row r="35" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>409</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="R35" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="S35" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="T35" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="U35" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="V35" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="W35" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="X35" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y35" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z35" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA35" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB35" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC35" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD35" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE35" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF35" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG35" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH35" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI35" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="AJ35" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK35" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL35" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="AM35" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN35" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="AO35" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="AP35" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ35" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="AR35" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="AS35" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="AT35" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="AU35" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="AV35" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="AW35" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="AX35" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="AY35" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="AZ35" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="BA35" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="BB35" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="BC35" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="BD35" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="BE35" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="BF35" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="BG35" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="BH35" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="BI35" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="BJ35" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="BK35" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="BL35" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="BM35" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="BN35" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="BO35" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="BP35" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="BQ35" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="BR35" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="BS35" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="BT35" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="BU35" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="BV35" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="BW35" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="BX35" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="BY35" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="BZ35" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="CA35" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="CB35" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="CC35" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="CD35" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="CE35" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="CF35" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="CG35" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="CH35" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="CI35" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="CJ35" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="CK35" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="CL35" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="CM35" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="CN35" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="CO35" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="CP35" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="CQ35" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="CR35" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="CS35" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="CT35" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="CU35" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="CV35" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="CW35" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="CX35" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="CY35" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="CZ35" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="DA35" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="DB35" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="DC35" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="DD35" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="DE35" s="29" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:157" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>518</v>
+      </c>
+      <c r="C36" t="s">
+        <v>519</v>
+      </c>
+      <c r="D36" t="s">
+        <v>520</v>
+      </c>
+      <c r="E36" t="s">
+        <v>521</v>
+      </c>
+      <c r="F36" t="s">
+        <v>522</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>523</v>
+      </c>
+      <c r="J36" t="s">
+        <v>524</v>
+      </c>
+      <c r="K36" t="s">
+        <v>525</v>
+      </c>
+      <c r="L36" t="s">
+        <v>526</v>
+      </c>
+      <c r="M36" t="s">
+        <v>527</v>
+      </c>
+      <c r="N36">
+        <v>85282</v>
+      </c>
+      <c r="O36" t="s">
+        <v>528</v>
+      </c>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36" t="s">
+        <v>529</v>
+      </c>
+      <c r="V36" t="s">
+        <v>530</v>
+      </c>
+      <c r="W36" t="s">
+        <v>531</v>
+      </c>
+      <c r="X36" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>100</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>95</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>536</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>537</v>
+      </c>
+      <c r="AK36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>90</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>538</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>534</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>537</v>
+      </c>
+      <c r="AQ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>85</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>539</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>534</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>540</v>
+      </c>
+      <c r="AW36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>80</v>
+      </c>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36"/>
+      <c r="BG36"/>
+      <c r="BH36"/>
+      <c r="BI36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36"/>
+      <c r="BM36"/>
+      <c r="BN36"/>
+      <c r="BO36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>0</v>
+      </c>
+      <c r="BR36"/>
+      <c r="BS36"/>
+      <c r="BT36"/>
+      <c r="BU36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW36">
+        <v>0</v>
+      </c>
+      <c r="BX36"/>
+      <c r="BY36"/>
+      <c r="BZ36"/>
+      <c r="CA36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC36">
+        <v>0</v>
+      </c>
+      <c r="CD36"/>
+      <c r="CE36" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF36"/>
+      <c r="CG36" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH36"/>
+      <c r="CI36" t="b">
+        <v>1</v>
+      </c>
+      <c r="CJ36"/>
+      <c r="CK36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL36"/>
+      <c r="CM36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN36"/>
+      <c r="CO36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CP36"/>
+      <c r="CQ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CR36"/>
+      <c r="CS36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CT36"/>
+      <c r="CU36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CV36"/>
+      <c r="CW36" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX36" t="s">
+        <v>541</v>
+      </c>
+      <c r="CY36" t="s">
+        <v>542</v>
+      </c>
+      <c r="CZ36">
+        <v>1</v>
+      </c>
+      <c r="DA36">
+        <v>5</v>
+      </c>
+      <c r="DB36">
+        <v>3</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>543</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>544</v>
+      </c>
+      <c r="DE36" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:157" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5619,4 +6630,16 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E0CED2-CE75-B247-B00A-AC7DA4A2CC9F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/v300Dialer_template.xlsx
+++ b/v300Dialer_template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettsullivan/Desktop/BHRF/Data_Recourses/LANDSCRAPE/adhs-restore-28-Jul-2025 copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED2C9F8-46F9-F243-B060-9621AC0BD4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E945BAE4-6E6E-0E46-949B-9D764C241DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="0" windowWidth="17480" windowHeight="22400" activeTab="1" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
+    <workbookView xWindow="18360" yWindow="0" windowWidth="17480" windowHeight="22400" activeTab="2" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="664">
   <si>
     <t>ADDRESS</t>
   </si>
@@ -1719,12 +1720,336 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>LAST DATE I CALLED</t>
+  </si>
+  <si>
+    <t>LAST DATE THEY PICKED UP</t>
+  </si>
+  <si>
+    <t>for these, can do a click display where colors of the nodes/icons tell you if 1) you called, no answer, voicemail 2)  you called, no answer, no voicemail, proceed horizontally where upon click</t>
+  </si>
+  <si>
+    <t>BD_RECORD_ID</t>
+  </si>
+  <si>
+    <t>BD_SOURCE_TYPE</t>
+  </si>
+  <si>
+    <t>BD_ENTITY_NAME</t>
+  </si>
+  <si>
+    <t>BD_SOURCE_ENTITY_ID</t>
+  </si>
+  <si>
+    <t>BD_TITLE_ROLE</t>
+  </si>
+  <si>
+    <t>BD_TARGET_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>BD_TARGET_LAST_NAME</t>
+  </si>
+  <si>
+    <t>BD_OWNER_NAME_FULL</t>
+  </si>
+  <si>
+    <t>BD_ADDRESS</t>
+  </si>
+  <si>
+    <t>BD_ADDRESS_2</t>
+  </si>
+  <si>
+    <t>BD_STATE</t>
+  </si>
+  <si>
+    <t>BD_MAILING_LINE1</t>
+  </si>
+  <si>
+    <t>BD_MAILING_CITY</t>
+  </si>
+  <si>
+    <t>BD_MAILING_STATE</t>
+  </si>
+  <si>
+    <t>BD_MAILING_ZIP</t>
+  </si>
+  <si>
+    <t>BD_PHONE_1</t>
+  </si>
+  <si>
+    <t>BD_PHONE_1_TYPE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_1_CARRIER</t>
+  </si>
+  <si>
+    <t>BD_PHONE_1_DNC</t>
+  </si>
+  <si>
+    <t>BD_PHONE_1_TCPA</t>
+  </si>
+  <si>
+    <t>BD_PHONE_1_CONFIDENCE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_2</t>
+  </si>
+  <si>
+    <t>BD_PHONE_2_TYPE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_2_CARRIER</t>
+  </si>
+  <si>
+    <t>BD_PHONE_2_DNC</t>
+  </si>
+  <si>
+    <t>BD_PHONE_2_TCPA</t>
+  </si>
+  <si>
+    <t>BD_PHONE_2_CONFIDENCE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_3</t>
+  </si>
+  <si>
+    <t>BD_PHONE_3_TYPE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_3_CARRIER</t>
+  </si>
+  <si>
+    <t>BD_PHONE_3_DNC</t>
+  </si>
+  <si>
+    <t>BD_PHONE_3_TCPA</t>
+  </si>
+  <si>
+    <t>BD_PHONE_3_CONFIDENCE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_4</t>
+  </si>
+  <si>
+    <t>BD_PHONE_4_TYPE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_4_CARRIER</t>
+  </si>
+  <si>
+    <t>BD_PHONE_4_DNC</t>
+  </si>
+  <si>
+    <t>BD_PHONE_4_TCPA</t>
+  </si>
+  <si>
+    <t>BD_PHONE_4_CONFIDENCE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_5</t>
+  </si>
+  <si>
+    <t>BD_PHONE_5_TYPE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_5_CARRIER</t>
+  </si>
+  <si>
+    <t>BD_PHONE_5_DNC</t>
+  </si>
+  <si>
+    <t>BD_PHONE_5_TCPA</t>
+  </si>
+  <si>
+    <t>BD_PHONE_5_CONFIDENCE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_6</t>
+  </si>
+  <si>
+    <t>BD_PHONE_6_TYPE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_6_CARRIER</t>
+  </si>
+  <si>
+    <t>BD_PHONE_6_DNC</t>
+  </si>
+  <si>
+    <t>BD_PHONE_6_TCPA</t>
+  </si>
+  <si>
+    <t>BD_PHONE_6_CONFIDENCE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_7</t>
+  </si>
+  <si>
+    <t>BD_PHONE_7_TYPE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_7_CARRIER</t>
+  </si>
+  <si>
+    <t>BD_PHONE_7_DNC</t>
+  </si>
+  <si>
+    <t>BD_PHONE_7_TCPA</t>
+  </si>
+  <si>
+    <t>BD_PHONE_7_CONFIDENCE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_8</t>
+  </si>
+  <si>
+    <t>BD_PHONE_8_TYPE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_8_CARRIER</t>
+  </si>
+  <si>
+    <t>BD_PHONE_8_DNC</t>
+  </si>
+  <si>
+    <t>BD_PHONE_8_TCPA</t>
+  </si>
+  <si>
+    <t>BD_PHONE_8_CONFIDENCE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_9</t>
+  </si>
+  <si>
+    <t>BD_PHONE_9_TYPE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_9_CARRIER</t>
+  </si>
+  <si>
+    <t>BD_PHONE_9_DNC</t>
+  </si>
+  <si>
+    <t>BD_PHONE_9_TCPA</t>
+  </si>
+  <si>
+    <t>BD_PHONE_9_CONFIDENCE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_10</t>
+  </si>
+  <si>
+    <t>BD_PHONE_10_TYPE</t>
+  </si>
+  <si>
+    <t>BD_PHONE_10_CARRIER</t>
+  </si>
+  <si>
+    <t>BD_PHONE_10_DNC</t>
+  </si>
+  <si>
+    <t>BD_PHONE_10_TCPA</t>
+  </si>
+  <si>
+    <t>BD_PHONE_10_CONFIDENCE</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_1</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_1_TESTED</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_2</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_2_TESTED</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_3</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_3_TESTED</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_4</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_4_TESTED</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_5</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_5_TESTED</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_6</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_6_TESTED</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_7</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_7_TESTED</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_8</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_8_TESTED</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_9</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_9_TESTED</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_10</t>
+  </si>
+  <si>
+    <t>BD_EMAIL_10_TESTED</t>
+  </si>
+  <si>
+    <t>BD_API_STATUS</t>
+  </si>
+  <si>
+    <t>BD_API_RESPONSE_TIME</t>
+  </si>
+  <si>
+    <t>BD_PERSONS_FOUND</t>
+  </si>
+  <si>
+    <t>BD_PHONES_FOUND</t>
+  </si>
+  <si>
+    <t>BD_EMAILS_FOUND</t>
+  </si>
+  <si>
+    <t>BD_PIPELINE_VERSION</t>
+  </si>
+  <si>
+    <t>BD_PIPELINE_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>BD_STAGES_APPLIED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1798,8 +2123,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1854,8 +2185,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF2D0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1889,12 +2226,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1984,12 +2334,52 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2011,6 +2401,429 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B655DDB5-2D84-624D-9FEF-848E85EF2906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="2438400"/>
+          <a:ext cx="15798800" cy="8750300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>1x ADDRESS per RECORD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>(unlike Ecorp Where it was one name and multiple addresses and contact information, and names per record.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>How are Addresses linked</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> with people linked with phone numbers. No consistancy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>ADDRESS &amp; INDIV CENTERED "Hi, I'm hoping to get in contact with INDIV about the ADDRESS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Manager/Member - 5 Phone Numbers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Member - 5 Phone Numbers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>ACTIONS:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> We are renaming fields &amp; this should update all logic and mention of the previously titled field as to not disrupt funcitonality. This means update </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>Ecorp/Ecorp_template_fields_desc.md  and other. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>I have updated the fields naming in Ecorp_Template.xlsx... </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>this could Be as simple as changing the red, the ones that are going into batch data for naming just conventions, i.e., change Comments to ECORP_COMMENTS. </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Also rename County to ECORP_COUNTY</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2) ANALYSIS on overlap of phone numbers &amp; strategy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> as each address gives up to 10 numbers. &amp; we need to filter out the DNC.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Good thinking, yeah lets map it, No need to move columns at all:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> 'address_line1' will be ‘BD_ADDRESS’ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>'city' to ‘BD_CITY’</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> 'state' to ‘BD_STATE’ - </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> - zip' to ‘BD_ZIP’ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> 'record_id' to ‘BD_RECORD_ID’ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>QUESTIONS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> ABOUT CURRENT ECORP_COMPLETE:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1) Is Domicile State the state associated with an individuals ADDRESS being scraped from site or just where the entity is based out of (no individual relationship)? </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>NO INDIV RELATIONSHIP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2) Same thing for Couty</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3) Where is the Ecorp_Template</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> defined fields for population logic? If none, create .md </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>NOW at Ecorp/Ecorp_template_fields_desc.md </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>4) Is Batchdata Template going to serve as the input and output? </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
+            <a:t>5) Is there any logic to where Owner_Ownership &amp; Search Name columns can ever be different populated values? </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>YES, for INDIVIDUALS Search Name is always blank</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>CODEBASE OVERALL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t> QUESTION:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>1) Should there be no repeat naming i.e. Analysis has FULL_ADDRESS and so does MCAO_Complete and so will Batchdata -- All this in v300 Dialer seems wrong no?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2330,11 +3143,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA547D1D-55E4-9142-B57A-C035D375D836}">
-  <dimension ref="A1:JR37"/>
+  <dimension ref="A1:JR36"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D19"/>
-    </sheetView>
+    <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3965,366 +4776,104 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="2:126" x14ac:dyDescent="0.2">
-      <c r="S36" t="s">
-        <v>488</v>
-      </c>
-      <c r="T36" t="s">
-        <v>489</v>
-      </c>
-      <c r="U36" t="s">
-        <v>490</v>
-      </c>
-      <c r="V36" t="s">
-        <v>491</v>
-      </c>
-      <c r="W36" t="s">
-        <v>492</v>
-      </c>
+    <row r="36" spans="2:93" x14ac:dyDescent="0.2">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
-      <c r="Z36" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>494</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>495</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE36">
-        <v>85282</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>498</v>
-      </c>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
       <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
       <c r="AJ36"/>
       <c r="AK36"/>
-      <c r="AL36" t="s">
-        <v>499</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>500</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>502</v>
-      </c>
-      <c r="AP36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>100</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>503</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>504</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>505</v>
-      </c>
-      <c r="AV36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX36">
-        <v>95</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>506</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>504</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>507</v>
-      </c>
-      <c r="BB36" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD36">
-        <v>90</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>508</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>504</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>507</v>
-      </c>
-      <c r="BH36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>85</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>509</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>504</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>510</v>
-      </c>
-      <c r="BN36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP36">
-        <v>80</v>
-      </c>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36"/>
+      <c r="BE36"/>
+      <c r="BF36"/>
+      <c r="BG36"/>
+      <c r="BH36"/>
+      <c r="BI36"/>
+      <c r="BJ36"/>
+      <c r="BK36"/>
+      <c r="BL36"/>
+      <c r="BM36"/>
+      <c r="BN36"/>
+      <c r="BO36"/>
+      <c r="BP36"/>
       <c r="BQ36"/>
       <c r="BR36"/>
       <c r="BS36"/>
-      <c r="BT36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV36">
-        <v>0</v>
-      </c>
+      <c r="BT36"/>
+      <c r="BU36"/>
+      <c r="BV36"/>
       <c r="BW36"/>
       <c r="BX36"/>
       <c r="BY36"/>
-      <c r="BZ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB36">
-        <v>0</v>
-      </c>
+      <c r="BZ36"/>
+      <c r="CA36"/>
+      <c r="CB36"/>
       <c r="CC36"/>
       <c r="CD36"/>
       <c r="CE36"/>
-      <c r="CF36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH36">
-        <v>0</v>
-      </c>
+      <c r="CF36"/>
+      <c r="CG36"/>
+      <c r="CH36"/>
       <c r="CI36"/>
       <c r="CJ36"/>
       <c r="CK36"/>
-      <c r="CL36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CN36">
-        <v>0</v>
-      </c>
+      <c r="CL36"/>
+      <c r="CM36"/>
+      <c r="CN36"/>
       <c r="CO36"/>
-      <c r="CP36"/>
-      <c r="CQ36"/>
-      <c r="CR36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT36">
-        <v>0</v>
-      </c>
-      <c r="CU36"/>
-      <c r="CV36" t="b">
-        <v>1</v>
-      </c>
-      <c r="CW36"/>
-      <c r="CX36" t="b">
-        <v>1</v>
-      </c>
-      <c r="CY36"/>
-      <c r="CZ36" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA36"/>
-      <c r="DB36" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC36"/>
-      <c r="DD36" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE36"/>
-      <c r="DF36" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG36"/>
-      <c r="DH36" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI36"/>
-      <c r="DJ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK36"/>
-      <c r="DL36" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM36"/>
-      <c r="DN36" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO36" t="s">
-        <v>511</v>
-      </c>
-      <c r="DP36" t="s">
-        <v>512</v>
-      </c>
-      <c r="DQ36">
-        <v>1</v>
-      </c>
-      <c r="DR36">
-        <v>5</v>
-      </c>
-      <c r="DS36">
-        <v>3</v>
-      </c>
-      <c r="DT36" t="s">
-        <v>513</v>
-      </c>
-      <c r="DU36" t="s">
-        <v>514</v>
-      </c>
-      <c r="DV36" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="37" spans="2:126" x14ac:dyDescent="0.2">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AF37"/>
-      <c r="AG37"/>
-      <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37"/>
-      <c r="AK37"/>
-      <c r="AL37"/>
-      <c r="AM37"/>
-      <c r="AN37"/>
-      <c r="AO37"/>
-      <c r="AP37"/>
-      <c r="AQ37"/>
-      <c r="AR37"/>
-      <c r="AS37"/>
-      <c r="AT37"/>
-      <c r="AU37"/>
-      <c r="AV37"/>
-      <c r="AW37"/>
-      <c r="AX37"/>
-      <c r="AY37"/>
-      <c r="AZ37"/>
-      <c r="BA37"/>
-      <c r="BB37"/>
-      <c r="BC37"/>
-      <c r="BD37"/>
-      <c r="BE37"/>
-      <c r="BF37"/>
-      <c r="BG37"/>
-      <c r="BH37"/>
-      <c r="BI37"/>
-      <c r="BJ37"/>
-      <c r="BK37"/>
-      <c r="BL37"/>
-      <c r="BM37"/>
-      <c r="BN37"/>
-      <c r="BO37"/>
-      <c r="BP37"/>
-      <c r="BQ37"/>
-      <c r="BR37"/>
-      <c r="BS37"/>
-      <c r="BT37"/>
-      <c r="BU37"/>
-      <c r="BV37"/>
-      <c r="BW37"/>
-      <c r="BX37"/>
-      <c r="BY37"/>
-      <c r="BZ37"/>
-      <c r="CA37"/>
-      <c r="CB37"/>
-      <c r="CC37"/>
-      <c r="CD37"/>
-      <c r="CE37"/>
-      <c r="CF37"/>
-      <c r="CG37"/>
-      <c r="CH37"/>
-      <c r="CI37"/>
-      <c r="CJ37"/>
-      <c r="CK37"/>
-      <c r="CL37"/>
-      <c r="CM37"/>
-      <c r="CN37"/>
-      <c r="CO37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4335,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CC8DD6-553E-B042-A242-6B3867F459A2}">
   <dimension ref="A1:FA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6366,6 +6915,236 @@
         <v>467</v>
       </c>
     </row>
+    <row r="9" spans="1:157" x14ac:dyDescent="0.2">
+      <c r="S9" t="s">
+        <v>488</v>
+      </c>
+      <c r="T9" t="s">
+        <v>489</v>
+      </c>
+      <c r="U9" t="s">
+        <v>490</v>
+      </c>
+      <c r="V9" t="s">
+        <v>491</v>
+      </c>
+      <c r="W9" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>496</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE9">
+        <v>85282</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>499</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>500</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>501</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>502</v>
+      </c>
+      <c r="AP9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>100</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>503</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>504</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AV9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>95</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>506</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>504</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>507</v>
+      </c>
+      <c r="BB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>90</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>508</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>504</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>507</v>
+      </c>
+      <c r="BH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>85</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>509</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>504</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>510</v>
+      </c>
+      <c r="BN9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>80</v>
+      </c>
+      <c r="BT9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="b">
+        <v>1</v>
+      </c>
+      <c r="CX9" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="DB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DL9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DN9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>511</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>512</v>
+      </c>
+      <c r="DQ9">
+        <v>1</v>
+      </c>
+      <c r="DR9">
+        <v>5</v>
+      </c>
+      <c r="DS9">
+        <v>3</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>513</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>514</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>515</v>
+      </c>
+    </row>
     <row r="14" spans="1:157" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
@@ -6499,25 +7278,25 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="25" t="s">
         <v>555</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="25" t="s">
         <v>555</v>
       </c>
       <c r="D27" s="1"/>
@@ -6542,4 +7321,1244 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC910AD2-6A54-CE44-98F5-4DD48CB453A6}">
+  <dimension ref="A1:OK4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="JM1" workbookViewId="0">
+      <selection activeCell="IU1" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:401" ht="80" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG1" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL1" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM1" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN1" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO1" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP1" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ1" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR1" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS1" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU1" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV1" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW1" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX1" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY1" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ1" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA1" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB1" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC1" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE1" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF1" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH1" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI1" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ1" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="BK1" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="BL1" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="BM1" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN1" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO1" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP1" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ1" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR1" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS1" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT1" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU1" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV1" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW1" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX1" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY1" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ1" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="CA1" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="CB1" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC1" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD1" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="CE1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="CF1" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG1" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="CH1" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="CI1" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="CJ1" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="CK1" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="CL1" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="CM1" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="CN1" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="CO1" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP1" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="CQ1" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR1" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="CS1" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="CT1" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="CU1" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="CV1" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="CW1" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="CX1" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="CY1" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="CZ1" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="DA1" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="DB1" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="DC1" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="DD1" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="DE1" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="DF1" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="DG1" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="DH1" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="DI1" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="DJ1" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="DK1" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="DL1" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="DM1" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="DN1" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="DO1" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="DP1" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="DQ1" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="DR1" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="DS1" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="DT1" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="DU1" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="DV1" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="DW1" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="DX1" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="DY1" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="DZ1" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="EA1" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="EB1" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="EC1" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="ED1" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="EE1" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="EF1" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="EG1" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="EH1" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI1" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="EJ1" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="EK1" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="EL1" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="EM1" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="EN1" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="EO1" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="EP1" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="EQ1" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="ER1" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="ES1" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="ET1" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="EU1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="EV1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="EW1" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="EX1" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="EY1" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="EZ1" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="FA1" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="FB1" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="FC1" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="FD1" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="FE1" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="FF1" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="FG1" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="FH1" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="FI1" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="FJ1" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="FK1" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="FL1" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="FM1" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="FN1" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="FO1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="FP1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="FQ1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="FR1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="FS1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="FT1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="FU1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="FV1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="FW1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="FX1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="FY1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="FZ1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="GA1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="GB1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="GC1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="GD1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="GE1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="GF1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="GG1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="GH1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="GI1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="GJ1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="GK1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="GL1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="GM1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="GN1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="GO1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="GP1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="GQ1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="GR1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="GS1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="GT1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="GU1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="GV1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="GW1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="GX1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="GY1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="GZ1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="HA1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="HB1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="HC1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="HD1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="HE1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="HF1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="HG1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="HH1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="HI1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="HJ1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="HK1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="HL1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="HM1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="HN1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="HO1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="HP1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="HQ1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="HR1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="HS1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="HT1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="HU1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="HV1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="HW1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="HX1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="HY1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="HZ1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="IA1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="IB1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="IC1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="ID1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="IE1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="IF1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="IG1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="IH1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="II1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="IJ1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="IK1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="IL1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="IM1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="IN1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="IO1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="IP1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="IQ1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="IR1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="IS1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="IT1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="IU1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="IV1" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="IW1" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="IX1" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="IY1" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="IZ1" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="JA1" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="JB1" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="JC1" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="JD1" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="JE1" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="JF1" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="JG1" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="JH1" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="JI1" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="JJ1" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="JK1" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="JL1" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="JM1" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="JN1" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="JO1" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="JP1" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="JQ1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="JR1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="JS1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="JT1" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="JU1" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="JV1" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="JW1" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="JX1" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="JY1" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="JZ1" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="KA1" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="KB1" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="KC1" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="KD1" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="KE1" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="KF1" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="KG1" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="KH1" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="KI1" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="KJ1" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="KK1" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="KL1" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="KM1" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="KN1" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="KO1" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="KP1" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="KQ1" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="KR1" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="KS1" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="KT1" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="KU1" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="KV1" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="KW1" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="KX1" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="KY1" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="KZ1" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="LA1" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="LB1" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="LC1" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="LD1" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="LE1" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="LF1" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="LG1" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="LH1" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="LI1" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="LJ1" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="LK1" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="LL1" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="LM1" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="LN1" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="LO1" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="LP1" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="LQ1" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="LR1" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="LS1" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="LT1" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="LU1" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="LV1" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="LW1" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="LX1" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="LY1" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="LZ1" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="MA1" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="MB1" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="MC1" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="MD1" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="ME1" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="MF1" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="MG1" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="MH1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="MI1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="MJ1" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="MK1" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="ML1" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="MM1" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="MN1" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="MO1" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="MP1" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="MQ1" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="MR1" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="MS1" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="MT1" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="MU1" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="MV1" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="MW1" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="MX1" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="MY1" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="MZ1" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="NA1" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="NB1" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="NC1" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="ND1" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="NE1" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="NF1" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="NG1" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="NH1" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="NI1" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="NJ1" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="NK1" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="NL1" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="NM1" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="NN1" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="NO1" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="NP1" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="NQ1" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="NR1" s="28" t="s">
+        <v>644</v>
+      </c>
+      <c r="NS1" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="NT1" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="NU1" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="NV1" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="NW1" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="NX1" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="NY1" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="NZ1" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="OA1" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="OB1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="OC1" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="OD1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="OE1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="OF1" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="OG1" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="OH1" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="OI1" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="OJ1" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="OK1" s="28" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:401" x14ac:dyDescent="0.2">
+      <c r="C3" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:401" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:N1">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:G1">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/v300Dialer_template.xlsx
+++ b/v300Dialer_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettsullivan/Desktop/BHRF/Data_Recourses/LANDSCRAPE/adhs-restore-28-Jul-2025 copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E945BAE4-6E6E-0E46-949B-9D764C241DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA421E7-ED6A-3542-9B93-A9AD6AEBB181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18360" yWindow="0" windowWidth="17480" windowHeight="22400" activeTab="2" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
   </bookViews>
@@ -2349,17 +2349,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4873,7 +4863,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7327,8 +7317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC910AD2-6A54-CE44-98F5-4DD48CB453A6}">
   <dimension ref="A1:OK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JM1" workbookViewId="0">
-      <selection activeCell="IU1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="JC1" workbookViewId="0">
+      <selection activeCell="JK9" sqref="JK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8550,13 +8540,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:N1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:G1">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/v300Dialer_template.xlsx
+++ b/v300Dialer_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettsullivan/Desktop/BHRF/Data_Recourses/LANDSCRAPE/adhs-restore-28-Jul-2025 copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettsullivan/Desktop/BHRF/Data_Recourses/LANDSCRAPE/adhs-working/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E945BAE4-6E6E-0E46-949B-9D764C241DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23116D44-83E5-1147-8011-75BD5386E8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="0" windowWidth="17480" windowHeight="22400" activeTab="2" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
+    <workbookView xWindow="2740" yWindow="500" windowWidth="33100" windowHeight="21900" activeTab="2" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="675">
   <si>
     <t>ADDRESS</t>
   </si>
@@ -2043,6 +2043,39 @@
   </si>
   <si>
     <t>BD_STAGES_APPLIED</t>
+  </si>
+  <si>
+    <t>CONTACT_NAME_INDEX_#</t>
+  </si>
+  <si>
+    <t>BATCHDATA_CALL_INDEX_#</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequential numbering indexing of the batch data API calls individually. </t>
+  </si>
+  <si>
+    <t>1of4. OR 1_4</t>
+  </si>
+  <si>
+    <t>address 1</t>
+  </si>
+  <si>
+    <t>address 2</t>
+  </si>
+  <si>
+    <t>address 3</t>
+  </si>
+  <si>
+    <t>address 5</t>
+  </si>
+  <si>
+    <t>address 4</t>
+  </si>
+  <si>
+    <t>address 6</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2334,16 +2367,20 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2410,13 +2447,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2431,8 +2468,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825500" y="2438400"/>
-          <a:ext cx="15798800" cy="8750300"/>
+          <a:off x="825500" y="2438401"/>
+          <a:ext cx="10109200" cy="4356099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2476,18 +2513,16 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>(unlike Ecorp Where it was one name and multiple addresses and contact information, and names per record.)</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>How are Addresses linked</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1 address- 1 dialer page - many people, many phones, many emails</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> with people linked with phone numbers. No consistancy.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" u="sng" baseline="0"/>
+            <a:t>, many status' within.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2496,23 +2531,29 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>ADDRESS &amp; INDIV CENTERED "Hi, I'm hoping to get in contact with INDIV about the ADDRESS</a:t>
+            <a:t>Dialer will display one address per Page.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Manager/Member - 5 Phone Numbers</a:t>
+            <a:t>Dialer will be able to call any contact, phone numbers (multiple) from a single page.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Member - 5 Phone Numbers</a:t>
+            <a:t>Dialer will have insights from Analysis, MCAO, Ecorp, Batchdata; </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1 address = 1 Batch API call?</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -2579,83 +2620,6 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>this could Be as simple as changing the red, the ones that are going into batch data for naming just conventions, i.e., change Comments to ECORP_COMMENTS. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Also rename County to ECORP_COUNTY</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>2) ANALYSIS on overlap of phone numbers &amp; strategy</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> as each address gives up to 10 numbers. &amp; we need to filter out the DNC.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
@@ -2677,125 +2641,20 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Good thinking, yeah lets map it, No need to move columns at all:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> 'address_line1' will be ‘BD_ADDRESS’ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>'city' to ‘BD_CITY’</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> 'state' to ‘BD_STATE’ - </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> - zip' to ‘BD_ZIP’ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> 'record_id' to ‘BD_RECORD_ID’ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>QUESTIONS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> ABOUT CURRENT ECORP_COMPLETE:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>1) Is Domicile State the state associated with an individuals ADDRESS being scraped from site or just where the entity is based out of (no individual relationship)? </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>NO INDIV RELATIONSHIP</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2) Same thing for Couty</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>3) Where is the Ecorp_Template</a:t>
+            <a:t>2) </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> defined fields for population logic? If none, create .md </a:t>
+            <a:t>This could Be as simple as changing the red, the ones that are going into batch data for naming just conventions, i.e., change Comments to ECORP_COMMENTS. </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
-            <a:t>NOW at Ecorp/Ecorp_template_fields_desc.md </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>4) Is Batchdata Template going to serve as the input and output? </a:t>
+            <a:t>Also rename County to ECORP_COUNTY</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
-            <a:t>YES</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0"/>
-            <a:t>5) Is there any logic to where Owner_Ownership &amp; Search Name columns can ever be different populated values? </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
-            <a:t>YES, for INDIVIDUALS Search Name is always blank</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="1" i="1"/>
         </a:p>
         <a:p>
@@ -2817,7 +2676,12 @@
             <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
             <a:t>1) Should there be no repeat naming i.e. Analysis has FULL_ADDRESS and so does MCAO_Complete and so will Batchdata -- All this in v300 Dialer seems wrong no?</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>	Add True / False field of FULL_ADDRESS alignment between Analysis, MCAO, Batchdata within Dialer?</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3141,6 +3005,26 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{E9D52703-2F84-0C42-B82C-4BEB441C9756}">
+  <we:reference id="wa200009152" version="1.0.0.3" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200009152" version="1.0.0.3" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA547D1D-55E4-9142-B57A-C035D375D836}">
   <dimension ref="A1:JR36"/>
@@ -7325,19 +7209,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC910AD2-6A54-CE44-98F5-4DD48CB453A6}">
-  <dimension ref="A1:OK4"/>
+  <dimension ref="A1:OL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JM1" workbookViewId="0">
-      <selection activeCell="IU1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:401" ht="80" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:402" s="33" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="33" t="s">
         <v>557</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -7367,1196 +7251,1240 @@
       <c r="K1" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="21" t="s">
         <v>376</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="O1" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="R1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="S1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="V1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="W1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="X1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="Y1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Z1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="AA1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AB1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AC1" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AD1" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AE1" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AF1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AG1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AH1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="AH1" s="32" t="s">
+      <c r="AI1" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AI1" s="32" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AJ1" s="32" t="s">
+      <c r="AK1" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AK1" s="32" t="s">
+      <c r="AL1" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AL1" s="32" t="s">
+      <c r="AM1" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="AM1" s="32" t="s">
+      <c r="AN1" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AN1" s="32" t="s">
+      <c r="AO1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="AO1" s="32" t="s">
+      <c r="AP1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="AP1" s="32" t="s">
+      <c r="AQ1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="AQ1" s="32" t="s">
+      <c r="AR1" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="AR1" s="32" t="s">
+      <c r="AS1" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AS1" s="32" t="s">
+      <c r="AT1" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AT1" s="32" t="s">
+      <c r="AU1" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AU1" s="32" t="s">
+      <c r="AV1" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="AV1" s="32" t="s">
+      <c r="AW1" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="AW1" s="32" t="s">
+      <c r="AX1" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AX1" s="32" t="s">
+      <c r="AY1" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="AY1" s="32" t="s">
+      <c r="AZ1" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="AZ1" s="32" t="s">
+      <c r="BA1" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="BA1" s="32" t="s">
+      <c r="BB1" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="BB1" s="32" t="s">
+      <c r="BC1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="BC1" s="32" t="s">
+      <c r="BD1" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="BD1" s="32" t="s">
+      <c r="BE1" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="BE1" s="32" t="s">
+      <c r="BF1" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="BF1" s="32" t="s">
+      <c r="BG1" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="BG1" s="32" t="s">
+      <c r="BH1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="BH1" s="32" t="s">
+      <c r="BI1" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BI1" s="32" t="s">
+      <c r="BJ1" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="BJ1" s="32" t="s">
+      <c r="BK1" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BK1" s="32" t="s">
+      <c r="BL1" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="BL1" s="32" t="s">
+      <c r="BM1" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="BM1" s="32" t="s">
+      <c r="BN1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="BN1" s="32" t="s">
+      <c r="BO1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="BO1" s="32" t="s">
+      <c r="BP1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BP1" s="32" t="s">
+      <c r="BQ1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="BQ1" s="32" t="s">
+      <c r="BR1" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="BR1" s="32" t="s">
+      <c r="BS1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="BS1" s="32" t="s">
+      <c r="BT1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="BT1" s="32" t="s">
+      <c r="BU1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="BU1" s="32" t="s">
+      <c r="BV1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BV1" s="32" t="s">
+      <c r="BW1" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="BW1" s="32" t="s">
+      <c r="BX1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="BX1" s="32" t="s">
+      <c r="BY1" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="BY1" s="32" t="s">
+      <c r="BZ1" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="BZ1" s="32" t="s">
+      <c r="CA1" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="CA1" s="32" t="s">
+      <c r="CB1" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="CB1" s="32" t="s">
+      <c r="CC1" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="CC1" s="32" t="s">
+      <c r="CD1" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="CD1" s="32" t="s">
+      <c r="CE1" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="CE1" s="32" t="s">
+      <c r="CF1" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="CF1" s="32" t="s">
+      <c r="CG1" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="CG1" s="32" t="s">
+      <c r="CH1" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="CH1" s="32" t="s">
+      <c r="CI1" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="CI1" s="32" t="s">
+      <c r="CJ1" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="CJ1" s="32" t="s">
+      <c r="CK1" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="CK1" s="32" t="s">
+      <c r="CL1" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="CL1" s="32" t="s">
+      <c r="CM1" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="CM1" s="32" t="s">
+      <c r="CN1" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="CN1" s="32" t="s">
+      <c r="CO1" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="CO1" s="32" t="s">
+      <c r="CP1" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="CP1" s="32" t="s">
+      <c r="CQ1" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="CQ1" s="32" t="s">
+      <c r="CR1" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="CR1" s="32" t="s">
+      <c r="CS1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="CS1" s="32" t="s">
+      <c r="CT1" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="CT1" s="32" t="s">
+      <c r="CU1" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="CU1" s="32" t="s">
+      <c r="CV1" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="CV1" s="32" t="s">
+      <c r="CW1" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="CW1" s="32" t="s">
+      <c r="CX1" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="CX1" s="32" t="s">
+      <c r="CY1" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="CY1" s="32" t="s">
+      <c r="CZ1" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="CZ1" s="32" t="s">
+      <c r="DA1" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="DA1" s="32" t="s">
+      <c r="DB1" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="DB1" s="32" t="s">
+      <c r="DC1" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="DC1" s="32" t="s">
+      <c r="DD1" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="DD1" s="32" t="s">
+      <c r="DE1" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="DE1" s="32" t="s">
+      <c r="DF1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="DF1" s="32" t="s">
+      <c r="DG1" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="DG1" s="32" t="s">
+      <c r="DH1" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="DH1" s="32" t="s">
+      <c r="DI1" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="DI1" s="32" t="s">
+      <c r="DJ1" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="DJ1" s="32" t="s">
+      <c r="DK1" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="DK1" s="32" t="s">
+      <c r="DL1" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="DL1" s="32" t="s">
+      <c r="DM1" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="DM1" s="32" t="s">
+      <c r="DN1" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="DN1" s="32" t="s">
+      <c r="DO1" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="DO1" s="32" t="s">
+      <c r="DP1" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="DP1" s="32" t="s">
+      <c r="DQ1" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="DQ1" s="32" t="s">
+      <c r="DR1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="DR1" s="32" t="s">
+      <c r="DS1" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="DS1" s="32" t="s">
+      <c r="DT1" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="DT1" s="32" t="s">
+      <c r="DU1" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="DU1" s="32" t="s">
+      <c r="DV1" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="DV1" s="32" t="s">
+      <c r="DW1" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="DW1" s="32" t="s">
+      <c r="DX1" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="DX1" s="32" t="s">
+      <c r="DY1" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="DY1" s="32" t="s">
+      <c r="DZ1" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="DZ1" s="32" t="s">
+      <c r="EA1" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="EA1" s="32" t="s">
+      <c r="EB1" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="EB1" s="32" t="s">
+      <c r="EC1" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="EC1" s="32" t="s">
+      <c r="ED1" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="ED1" s="32" t="s">
+      <c r="EE1" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="EE1" s="32" t="s">
+      <c r="EF1" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="EF1" s="32" t="s">
+      <c r="EG1" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="EG1" s="32" t="s">
+      <c r="EH1" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="EH1" s="32" t="s">
+      <c r="EI1" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="EI1" s="32" t="s">
+      <c r="EJ1" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="EJ1" s="32" t="s">
+      <c r="EK1" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="EK1" s="32" t="s">
+      <c r="EL1" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="EL1" s="32" t="s">
+      <c r="EM1" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="EM1" s="32" t="s">
+      <c r="EN1" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="EN1" s="32" t="s">
+      <c r="EO1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="EO1" s="32" t="s">
+      <c r="EP1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="EP1" s="32" t="s">
+      <c r="EQ1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="EQ1" s="32" t="s">
+      <c r="ER1" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="ER1" s="32" t="s">
+      <c r="ES1" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="ES1" s="32" t="s">
+      <c r="ET1" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="ET1" s="32" t="s">
+      <c r="EU1" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="EU1" s="32" t="s">
+      <c r="EV1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="EV1" s="32" t="s">
+      <c r="EW1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="EW1" s="32" t="s">
+      <c r="EX1" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="EX1" s="32" t="s">
+      <c r="EY1" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="EY1" s="32" t="s">
+      <c r="EZ1" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="EZ1" s="32" t="s">
+      <c r="FA1" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="FA1" s="32" t="s">
+      <c r="FB1" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="FB1" s="32" t="s">
+      <c r="FC1" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="FC1" s="32" t="s">
+      <c r="FD1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="FD1" s="32" t="s">
+      <c r="FE1" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="FE1" s="32" t="s">
+      <c r="FF1" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="FF1" s="32" t="s">
+      <c r="FG1" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="FG1" s="32" t="s">
+      <c r="FH1" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="FH1" s="32" t="s">
+      <c r="FI1" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="FI1" s="32" t="s">
+      <c r="FJ1" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="FJ1" s="32" t="s">
+      <c r="FK1" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="FK1" s="32" t="s">
+      <c r="FL1" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="FL1" s="32" t="s">
+      <c r="FM1" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="FM1" s="32" t="s">
+      <c r="FN1" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="FN1" s="32" t="s">
+      <c r="FO1" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="FO1" s="15" t="s">
+      <c r="FP1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="FP1" s="15" t="s">
+      <c r="FQ1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="FQ1" s="15" t="s">
+      <c r="FR1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="FR1" s="15" t="s">
+      <c r="FS1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="FS1" s="15" t="s">
+      <c r="FT1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="FT1" s="15" t="s">
+      <c r="FU1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="FU1" s="15" t="s">
+      <c r="FV1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="FV1" s="15" t="s">
+      <c r="FW1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="FW1" s="15" t="s">
+      <c r="FX1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="FX1" s="15" t="s">
+      <c r="FY1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="FY1" s="15" t="s">
+      <c r="FZ1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="FZ1" s="15" t="s">
+      <c r="GA1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="GA1" s="15" t="s">
+      <c r="GB1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="GB1" s="15" t="s">
+      <c r="GC1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="GC1" s="15" t="s">
+      <c r="GD1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="GD1" s="15" t="s">
+      <c r="GE1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="GE1" s="15" t="s">
+      <c r="GF1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="GF1" s="15" t="s">
+      <c r="GG1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="GG1" s="15" t="s">
+      <c r="GH1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="GH1" s="16" t="s">
+      <c r="GI1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="GI1" s="15" t="s">
+      <c r="GJ1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="GJ1" s="15" t="s">
+      <c r="GK1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="GK1" s="15" t="s">
+      <c r="GL1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="GL1" s="15" t="s">
+      <c r="GM1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="GM1" s="15" t="s">
+      <c r="GN1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="GN1" s="15" t="s">
+      <c r="GO1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="GO1" s="15" t="s">
+      <c r="GP1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="GP1" s="15" t="s">
+      <c r="GQ1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="GQ1" s="16" t="s">
+      <c r="GR1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="GR1" s="15" t="s">
+      <c r="GS1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="GS1" s="15" t="s">
+      <c r="GT1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="GT1" s="15" t="s">
+      <c r="GU1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="GU1" s="15" t="s">
+      <c r="GV1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="GV1" s="15" t="s">
+      <c r="GW1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="GW1" s="15" t="s">
+      <c r="GX1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="GX1" s="15" t="s">
+      <c r="GY1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="GY1" s="15" t="s">
+      <c r="GZ1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="GZ1" s="15" t="s">
+      <c r="HA1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="HA1" s="15" t="s">
+      <c r="HB1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="HB1" s="15" t="s">
+      <c r="HC1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="HC1" s="15" t="s">
+      <c r="HD1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="HD1" s="15" t="s">
+      <c r="HE1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="HE1" s="15" t="s">
+      <c r="HF1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="HF1" s="15" t="s">
+      <c r="HG1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="HG1" s="15" t="s">
+      <c r="HH1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="HH1" s="15" t="s">
+      <c r="HI1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="HI1" s="15" t="s">
+      <c r="HJ1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="HJ1" s="15" t="s">
+      <c r="HK1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="HK1" s="16" t="s">
+      <c r="HL1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="HL1" s="16" t="s">
+      <c r="HM1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="HM1" s="16" t="s">
+      <c r="HN1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="HN1" s="16" t="s">
+      <c r="HO1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="HO1" s="16" t="s">
+      <c r="HP1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="HP1" s="15" t="s">
+      <c r="HQ1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="HQ1" s="15" t="s">
+      <c r="HR1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="HR1" s="15" t="s">
+      <c r="HS1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="HS1" s="15" t="s">
+      <c r="HT1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="HT1" s="15" t="s">
+      <c r="HU1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="HU1" s="15" t="s">
+      <c r="HV1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="HV1" s="15" t="s">
+      <c r="HW1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="HW1" s="15" t="s">
+      <c r="HX1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="HX1" s="15" t="s">
+      <c r="HY1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="HY1" s="15" t="s">
+      <c r="HZ1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="HZ1" s="15" t="s">
+      <c r="IA1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="IA1" s="15" t="s">
+      <c r="IB1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="IB1" s="15" t="s">
+      <c r="IC1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="IC1" s="15" t="s">
+      <c r="ID1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="ID1" s="15" t="s">
+      <c r="IE1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="IE1" s="15" t="s">
+      <c r="IF1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="IF1" s="15" t="s">
+      <c r="IG1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="IG1" s="15" t="s">
+      <c r="IH1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="IH1" s="15" t="s">
+      <c r="II1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="II1" s="15" t="s">
+      <c r="IJ1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="IJ1" s="15" t="s">
+      <c r="IK1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="IK1" s="15" t="s">
+      <c r="IL1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="IL1" s="15" t="s">
+      <c r="IM1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="IM1" s="16" t="s">
+      <c r="IN1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="IN1" s="16" t="s">
+      <c r="IO1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="IO1" s="15" t="s">
+      <c r="IP1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="IP1" s="15" t="s">
+      <c r="IQ1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="IQ1" s="15" t="s">
+      <c r="IR1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="IR1" s="15" t="s">
+      <c r="IS1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="IS1" s="15" t="s">
+      <c r="IT1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="IT1" s="15" t="s">
+      <c r="IU1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="IU1" s="17" t="s">
+      <c r="IV1" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="IV1" s="17" t="s">
+      <c r="IW1" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="IW1" s="17" t="s">
+      <c r="IX1" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="IX1" s="17" t="s">
+      <c r="IY1" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="IY1" s="17" t="s">
+      <c r="IZ1" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="IZ1" s="17" t="s">
+      <c r="JA1" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="JA1" s="17" t="s">
+      <c r="JB1" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="JB1" s="17" t="s">
+      <c r="JC1" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="JC1" s="17" t="s">
+      <c r="JD1" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="JD1" s="17" t="s">
+      <c r="JE1" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="JE1" s="17" t="s">
+      <c r="JF1" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="JF1" s="17" t="s">
+      <c r="JG1" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="JG1" s="17" t="s">
+      <c r="JH1" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="JH1" s="17" t="s">
+      <c r="JI1" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="JI1" s="17" t="s">
+      <c r="JJ1" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="JJ1" s="17" t="s">
+      <c r="JK1" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="JK1" s="17" t="s">
+      <c r="JL1" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="JL1" s="17" t="s">
+      <c r="JM1" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="JM1" s="17" t="s">
+      <c r="JN1" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="JN1" s="17" t="s">
+      <c r="JO1" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="JO1" s="17" t="s">
+      <c r="JP1" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="JP1" s="17" t="s">
+      <c r="JQ1" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="JQ1" s="30" t="s">
+      <c r="JR1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="JR1" s="30" t="s">
+      <c r="JS1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="JS1" s="30" t="s">
+      <c r="JT1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="JT1" s="30" t="s">
+      <c r="JU1" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="JU1" s="30" t="s">
+      <c r="JV1" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="JV1" s="30" t="s">
+      <c r="JW1" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="JW1" s="30" t="s">
+      <c r="JX1" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="JX1" s="30" t="s">
+      <c r="JY1" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="JY1" s="30" t="s">
+      <c r="JZ1" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="JZ1" s="30" t="s">
+      <c r="KA1" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="KA1" s="30" t="s">
+      <c r="KB1" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="KB1" s="30" t="s">
+      <c r="KC1" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="KC1" s="30" t="s">
+      <c r="KD1" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="KD1" s="30" t="s">
+      <c r="KE1" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="KE1" s="30" t="s">
+      <c r="KF1" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="KF1" s="30" t="s">
+      <c r="KG1" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="KG1" s="34" t="s">
+      <c r="KH1" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="KH1" s="28" t="s">
+      <c r="KI1" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="KI1" s="28" t="s">
+      <c r="KJ1" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="KJ1" s="28" t="s">
+      <c r="KK1" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="KK1" s="28" t="s">
+      <c r="KL1" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="KL1" s="29" t="s">
+      <c r="KM1" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="KM1" s="28" t="s">
+      <c r="KN1" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="KN1" s="28" t="s">
+      <c r="KO1" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="KO1" s="28" t="s">
+      <c r="KP1" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="KP1" s="28" t="s">
+      <c r="KQ1" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="KQ1" s="28" t="s">
+      <c r="KR1" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="KR1" s="28" t="s">
+      <c r="KS1" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="KS1" s="28" t="s">
+      <c r="KT1" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="KT1" s="28" t="s">
+      <c r="KU1" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="KU1" s="28" t="s">
+      <c r="KV1" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="KV1" s="28" t="s">
+      <c r="KW1" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="KW1" s="28" t="s">
+      <c r="KX1" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="KX1" s="28" t="s">
+      <c r="KY1" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="KY1" s="28" t="s">
+      <c r="KZ1" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="KZ1" s="28" t="s">
+      <c r="LA1" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="LA1" s="28" t="s">
+      <c r="LB1" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="LB1" s="28" t="s">
+      <c r="LC1" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="LC1" s="28" t="s">
+      <c r="LD1" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="LD1" s="28" t="s">
+      <c r="LE1" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="LE1" s="28" t="s">
+      <c r="LF1" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="LF1" s="28" t="s">
+      <c r="LG1" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="LG1" s="28" t="s">
+      <c r="LH1" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="LH1" s="28" t="s">
+      <c r="LI1" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="LI1" s="28" t="s">
+      <c r="LJ1" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="LJ1" s="28" t="s">
+      <c r="LK1" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="LK1" s="28" t="s">
+      <c r="LL1" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="LL1" s="28" t="s">
+      <c r="LM1" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="LM1" s="28" t="s">
+      <c r="LN1" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="LN1" s="28" t="s">
+      <c r="LO1" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="LO1" s="28" t="s">
+      <c r="LP1" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="LP1" s="28" t="s">
+      <c r="LQ1" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="LQ1" s="28" t="s">
+      <c r="LR1" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="LR1" s="28" t="s">
+      <c r="LS1" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="LS1" s="28" t="s">
+      <c r="LT1" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="LT1" s="28" t="s">
+      <c r="LU1" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="LU1" s="28" t="s">
+      <c r="LV1" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="LV1" s="28" t="s">
+      <c r="LW1" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="LW1" s="28" t="s">
+      <c r="LX1" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="LX1" s="28" t="s">
+      <c r="LY1" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="LY1" s="28" t="s">
+      <c r="LZ1" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="LZ1" s="28" t="s">
+      <c r="MA1" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="MA1" s="28" t="s">
+      <c r="MB1" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="MB1" s="28" t="s">
+      <c r="MC1" s="28" t="s">
         <v>602</v>
       </c>
-      <c r="MC1" s="28" t="s">
+      <c r="MD1" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="MD1" s="28" t="s">
+      <c r="ME1" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="ME1" s="28" t="s">
+      <c r="MF1" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="MF1" s="28" t="s">
+      <c r="MG1" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="MG1" s="28" t="s">
+      <c r="MH1" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="MH1" s="28" t="s">
+      <c r="MI1" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="MI1" s="28" t="s">
+      <c r="MJ1" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="MJ1" s="28" t="s">
+      <c r="MK1" s="28" t="s">
         <v>610</v>
       </c>
-      <c r="MK1" s="28" t="s">
+      <c r="ML1" s="28" t="s">
         <v>611</v>
       </c>
-      <c r="ML1" s="28" t="s">
+      <c r="MM1" s="28" t="s">
         <v>612</v>
       </c>
-      <c r="MM1" s="28" t="s">
+      <c r="MN1" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="MN1" s="28" t="s">
+      <c r="MO1" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="MO1" s="28" t="s">
+      <c r="MP1" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="MP1" s="28" t="s">
+      <c r="MQ1" s="28" t="s">
         <v>616</v>
       </c>
-      <c r="MQ1" s="28" t="s">
+      <c r="MR1" s="28" t="s">
         <v>617</v>
       </c>
-      <c r="MR1" s="28" t="s">
+      <c r="MS1" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="MS1" s="28" t="s">
+      <c r="MT1" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="MT1" s="28" t="s">
+      <c r="MU1" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="MU1" s="28" t="s">
+      <c r="MV1" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="MV1" s="28" t="s">
+      <c r="MW1" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="MW1" s="28" t="s">
+      <c r="MX1" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="MX1" s="28" t="s">
+      <c r="MY1" s="28" t="s">
         <v>624</v>
       </c>
-      <c r="MY1" s="28" t="s">
+      <c r="MZ1" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="MZ1" s="28" t="s">
+      <c r="NA1" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="NA1" s="28" t="s">
+      <c r="NB1" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="NB1" s="28" t="s">
+      <c r="NC1" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="NC1" s="28" t="s">
+      <c r="ND1" s="28" t="s">
         <v>629</v>
       </c>
-      <c r="ND1" s="28" t="s">
+      <c r="NE1" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="NE1" s="28" t="s">
+      <c r="NF1" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="NF1" s="28" t="s">
+      <c r="NG1" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="NG1" s="28" t="s">
+      <c r="NH1" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="NH1" s="28" t="s">
+      <c r="NI1" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="NI1" s="28" t="s">
+      <c r="NJ1" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="NJ1" s="28" t="s">
+      <c r="NK1" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="NK1" s="28" t="s">
+      <c r="NL1" s="28" t="s">
         <v>637</v>
       </c>
-      <c r="NL1" s="28" t="s">
+      <c r="NM1" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="NM1" s="28" t="s">
+      <c r="NN1" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="NN1" s="28" t="s">
+      <c r="NO1" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="NO1" s="28" t="s">
+      <c r="NP1" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="NP1" s="28" t="s">
+      <c r="NQ1" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="NQ1" s="28" t="s">
+      <c r="NR1" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="NR1" s="28" t="s">
+      <c r="NS1" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="NS1" s="28" t="s">
+      <c r="NT1" s="28" t="s">
         <v>645</v>
       </c>
-      <c r="NT1" s="28" t="s">
+      <c r="NU1" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="NU1" s="28" t="s">
+      <c r="NV1" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="NV1" s="28" t="s">
+      <c r="NW1" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="NW1" s="28" t="s">
+      <c r="NX1" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="NX1" s="28" t="s">
+      <c r="NY1" s="28" t="s">
         <v>650</v>
       </c>
-      <c r="NY1" s="28" t="s">
+      <c r="NZ1" s="28" t="s">
         <v>651</v>
       </c>
-      <c r="NZ1" s="28" t="s">
+      <c r="OA1" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="OA1" s="28" t="s">
+      <c r="OB1" s="28" t="s">
         <v>653</v>
       </c>
-      <c r="OB1" s="28" t="s">
+      <c r="OC1" s="28" t="s">
         <v>654</v>
       </c>
-      <c r="OC1" s="28" t="s">
+      <c r="OD1" s="28" t="s">
         <v>655</v>
       </c>
-      <c r="OD1" s="28" t="s">
+      <c r="OE1" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="OE1" s="28" t="s">
+      <c r="OF1" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="OF1" s="28" t="s">
+      <c r="OG1" s="28" t="s">
         <v>658</v>
       </c>
-      <c r="OG1" s="28" t="s">
+      <c r="OH1" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="OH1" s="28" t="s">
+      <c r="OI1" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="OI1" s="28" t="s">
+      <c r="OJ1" s="28" t="s">
         <v>661</v>
       </c>
-      <c r="OJ1" s="28" t="s">
+      <c r="OK1" s="28" t="s">
         <v>662</v>
       </c>
-      <c r="OK1" s="28" t="s">
+      <c r="OL1" s="28" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="3" spans="1:401" x14ac:dyDescent="0.2">
-      <c r="C3" s="33" t="s">
+    <row r="2" spans="1:402" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>669</v>
+      </c>
+      <c r="O2" t="s">
+        <v>666</v>
+      </c>
+      <c r="P2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:402" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>558</v>
       </c>
       <c r="D3" t="s">
         <v>560</v>
       </c>
+      <c r="O3" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="4" spans="1:401" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="4" spans="1:402" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:402" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:402" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:402" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>674</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:N1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="A1:N1 P1:XFD1">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:G1">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="H1:N1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/v300Dialer_template.xlsx
+++ b/v300Dialer_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettsullivan/Desktop/BHRF/Data_Recourses/LANDSCRAPE/adhs-working/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23116D44-83E5-1147-8011-75BD5386E8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A09867-3D89-2447-AA7C-0646F145FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="500" windowWidth="33100" windowHeight="21900" activeTab="2" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
+    <workbookView xWindow="9980" yWindow="4980" windowWidth="25860" windowHeight="17420" activeTab="2" xr2:uid="{18482702-A69E-6041-904C-3409D379D533}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="676">
   <si>
     <t>ADDRESS</t>
   </si>
@@ -2076,6 +2076,9 @@
   </si>
   <si>
     <t>address 6</t>
+  </si>
+  <si>
+    <t>BATCH_ECORP_CALL_TYPE</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2224,6 +2227,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2277,7 +2286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2381,6 +2390,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7209,15 +7221,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC910AD2-6A54-CE44-98F5-4DD48CB453A6}">
-  <dimension ref="A1:OL7"/>
+  <dimension ref="A1:OM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="JV1" workbookViewId="0">
+      <selection activeCell="KI9" sqref="KI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="295" max="295" width="17.1640625" style="33" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:402" s="33" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:403" s="33" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>556</v>
       </c>
@@ -8100,332 +8115,335 @@
       <c r="KH1" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="KI1" s="28" t="s">
+      <c r="KI1" s="37" t="s">
+        <v>675</v>
+      </c>
+      <c r="KJ1" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="KJ1" s="28" t="s">
+      <c r="KK1" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="KK1" s="28" t="s">
+      <c r="KL1" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="KL1" s="28" t="s">
+      <c r="KM1" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="KM1" s="29" t="s">
+      <c r="KN1" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="KN1" s="28" t="s">
+      <c r="KO1" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="KO1" s="28" t="s">
+      <c r="KP1" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="KP1" s="28" t="s">
+      <c r="KQ1" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="KQ1" s="28" t="s">
+      <c r="KR1" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="KR1" s="28" t="s">
+      <c r="KS1" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="KS1" s="28" t="s">
+      <c r="KT1" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="KT1" s="28" t="s">
+      <c r="KU1" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="KU1" s="28" t="s">
+      <c r="KV1" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="KV1" s="28" t="s">
+      <c r="KW1" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="KW1" s="28" t="s">
+      <c r="KX1" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="KX1" s="28" t="s">
+      <c r="KY1" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="KY1" s="28" t="s">
+      <c r="KZ1" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="KZ1" s="28" t="s">
+      <c r="LA1" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="LA1" s="28" t="s">
+      <c r="LB1" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="LB1" s="28" t="s">
+      <c r="LC1" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="LC1" s="28" t="s">
+      <c r="LD1" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="LD1" s="28" t="s">
+      <c r="LE1" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="LE1" s="28" t="s">
+      <c r="LF1" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="LF1" s="28" t="s">
+      <c r="LG1" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="LG1" s="28" t="s">
+      <c r="LH1" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="LH1" s="28" t="s">
+      <c r="LI1" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="LI1" s="28" t="s">
+      <c r="LJ1" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="LJ1" s="28" t="s">
+      <c r="LK1" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="LK1" s="28" t="s">
+      <c r="LL1" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="LL1" s="28" t="s">
+      <c r="LM1" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="LM1" s="28" t="s">
+      <c r="LN1" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="LN1" s="28" t="s">
+      <c r="LO1" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="LO1" s="28" t="s">
+      <c r="LP1" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="LP1" s="28" t="s">
+      <c r="LQ1" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="LQ1" s="28" t="s">
+      <c r="LR1" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="LR1" s="28" t="s">
+      <c r="LS1" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="LS1" s="28" t="s">
+      <c r="LT1" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="LT1" s="28" t="s">
+      <c r="LU1" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="LU1" s="28" t="s">
+      <c r="LV1" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="LV1" s="28" t="s">
+      <c r="LW1" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="LW1" s="28" t="s">
+      <c r="LX1" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="LX1" s="28" t="s">
+      <c r="LY1" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="LY1" s="28" t="s">
+      <c r="LZ1" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="LZ1" s="28" t="s">
+      <c r="MA1" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="MA1" s="28" t="s">
+      <c r="MB1" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="MB1" s="28" t="s">
+      <c r="MC1" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="MC1" s="28" t="s">
+      <c r="MD1" s="28" t="s">
         <v>602</v>
       </c>
-      <c r="MD1" s="28" t="s">
+      <c r="ME1" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="ME1" s="28" t="s">
+      <c r="MF1" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="MF1" s="28" t="s">
+      <c r="MG1" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="MG1" s="28" t="s">
+      <c r="MH1" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="MH1" s="28" t="s">
+      <c r="MI1" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="MI1" s="28" t="s">
+      <c r="MJ1" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="MJ1" s="28" t="s">
+      <c r="MK1" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="MK1" s="28" t="s">
+      <c r="ML1" s="28" t="s">
         <v>610</v>
       </c>
-      <c r="ML1" s="28" t="s">
+      <c r="MM1" s="28" t="s">
         <v>611</v>
       </c>
-      <c r="MM1" s="28" t="s">
+      <c r="MN1" s="28" t="s">
         <v>612</v>
       </c>
-      <c r="MN1" s="28" t="s">
+      <c r="MO1" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="MO1" s="28" t="s">
+      <c r="MP1" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="MP1" s="28" t="s">
+      <c r="MQ1" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="MQ1" s="28" t="s">
+      <c r="MR1" s="28" t="s">
         <v>616</v>
       </c>
-      <c r="MR1" s="28" t="s">
+      <c r="MS1" s="28" t="s">
         <v>617</v>
       </c>
-      <c r="MS1" s="28" t="s">
+      <c r="MT1" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="MT1" s="28" t="s">
+      <c r="MU1" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="MU1" s="28" t="s">
+      <c r="MV1" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="MV1" s="28" t="s">
+      <c r="MW1" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="MW1" s="28" t="s">
+      <c r="MX1" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="MX1" s="28" t="s">
+      <c r="MY1" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="MY1" s="28" t="s">
+      <c r="MZ1" s="28" t="s">
         <v>624</v>
       </c>
-      <c r="MZ1" s="28" t="s">
+      <c r="NA1" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="NA1" s="28" t="s">
+      <c r="NB1" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="NB1" s="28" t="s">
+      <c r="NC1" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="NC1" s="28" t="s">
+      <c r="ND1" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="ND1" s="28" t="s">
+      <c r="NE1" s="28" t="s">
         <v>629</v>
       </c>
-      <c r="NE1" s="28" t="s">
+      <c r="NF1" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="NF1" s="28" t="s">
+      <c r="NG1" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="NG1" s="28" t="s">
+      <c r="NH1" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="NH1" s="28" t="s">
+      <c r="NI1" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="NI1" s="28" t="s">
+      <c r="NJ1" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="NJ1" s="28" t="s">
+      <c r="NK1" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="NK1" s="28" t="s">
+      <c r="NL1" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="NL1" s="28" t="s">
+      <c r="NM1" s="28" t="s">
         <v>637</v>
       </c>
-      <c r="NM1" s="28" t="s">
+      <c r="NN1" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="NN1" s="28" t="s">
+      <c r="NO1" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="NO1" s="28" t="s">
+      <c r="NP1" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="NP1" s="28" t="s">
+      <c r="NQ1" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="NQ1" s="28" t="s">
+      <c r="NR1" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="NR1" s="28" t="s">
+      <c r="NS1" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="NS1" s="28" t="s">
+      <c r="NT1" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="NT1" s="28" t="s">
+      <c r="NU1" s="28" t="s">
         <v>645</v>
       </c>
-      <c r="NU1" s="28" t="s">
+      <c r="NV1" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="NV1" s="28" t="s">
+      <c r="NW1" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="NW1" s="28" t="s">
+      <c r="NX1" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="NX1" s="28" t="s">
+      <c r="NY1" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="NY1" s="28" t="s">
+      <c r="NZ1" s="28" t="s">
         <v>650</v>
       </c>
-      <c r="NZ1" s="28" t="s">
+      <c r="OA1" s="28" t="s">
         <v>651</v>
       </c>
-      <c r="OA1" s="28" t="s">
+      <c r="OB1" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="OB1" s="28" t="s">
+      <c r="OC1" s="28" t="s">
         <v>653</v>
       </c>
-      <c r="OC1" s="28" t="s">
+      <c r="OD1" s="28" t="s">
         <v>654</v>
       </c>
-      <c r="OD1" s="28" t="s">
+      <c r="OE1" s="28" t="s">
         <v>655</v>
       </c>
-      <c r="OE1" s="28" t="s">
+      <c r="OF1" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="OF1" s="28" t="s">
+      <c r="OG1" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="OG1" s="28" t="s">
+      <c r="OH1" s="28" t="s">
         <v>658</v>
       </c>
-      <c r="OH1" s="28" t="s">
+      <c r="OI1" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="OI1" s="28" t="s">
+      <c r="OJ1" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="OJ1" s="28" t="s">
+      <c r="OK1" s="28" t="s">
         <v>661</v>
       </c>
-      <c r="OK1" s="28" t="s">
+      <c r="OL1" s="28" t="s">
         <v>662</v>
       </c>
-      <c r="OL1" s="28" t="s">
+      <c r="OM1" s="28" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="2" spans="1:402" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:403" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>669</v>
       </c>
@@ -8435,8 +8453,9 @@
       <c r="P2" t="s">
         <v>668</v>
       </c>
+      <c r="KI2"/>
     </row>
-    <row r="3" spans="1:402" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:403" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>670</v>
       </c>
@@ -8453,25 +8472,26 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:402" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:403" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>559</v>
       </c>
+      <c r="KI4" s="33"/>
     </row>
-    <row r="5" spans="1:402" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:403" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="6" spans="1:402" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:403" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="7" spans="1:402" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:403" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>674</v>
       </c>
